--- a/Диета.xlsx
+++ b/Диета.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="743">
   <si>
     <t>белки</t>
   </si>
@@ -2209,13 +2209,49 @@
   </si>
   <si>
     <t>17. Куркума</t>
+  </si>
+  <si>
+    <t>18. Дыня</t>
+  </si>
+  <si>
+    <t>19. Картофель</t>
+  </si>
+  <si>
+    <t>20. Печенье</t>
+  </si>
+  <si>
+    <t>21. Тунец</t>
+  </si>
+  <si>
+    <t>22. Лаваш</t>
+  </si>
+  <si>
+    <t>23. Морковь</t>
+  </si>
+  <si>
+    <t>24. Свекла</t>
+  </si>
+  <si>
+    <t>25. Икра кабачковая</t>
+  </si>
+  <si>
+    <t>26. Хек</t>
+  </si>
+  <si>
+    <t>27. Говядина</t>
+  </si>
+  <si>
+    <t>т</t>
+  </si>
+  <si>
+    <t>28. Яйцо без желтка</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2234,6 +2270,15 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2256,7 +2301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2266,6 +2311,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2567,10 +2613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L25"/>
+  <dimension ref="B1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2814,23 +2860,23 @@
         <v>718</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>51.1</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="I12">
         <v>51.1</v>
@@ -2850,11 +2896,11 @@
         <v>719</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
@@ -2862,11 +2908,11 @@
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="I13">
         <v>0.3</v>
@@ -2886,23 +2932,23 @@
         <v>720</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I14">
         <v>2.2000000000000002</v>
@@ -2958,23 +3004,23 @@
         <v>722</v>
       </c>
       <c r="D16">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>0.86</v>
+        <v>1.29</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>260</v>
+        <v>390</v>
       </c>
       <c r="I16">
         <v>26</v>
@@ -3247,29 +3293,1202 @@
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>731</v>
+      </c>
+      <c r="D25">
+        <v>200</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ref="E25:E27" si="4">$D25/100*I25</f>
+        <v>1.2</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25:F27" si="5">$D25/100*J25</f>
+        <v>0.6</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ref="G25:G27" si="6">$D25/100*K25</f>
+        <v>14.8</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25:H27" si="7">D25/100*L25</f>
+        <v>66</v>
+      </c>
+      <c r="I25">
+        <v>0.6</v>
+      </c>
+      <c r="J25">
+        <v>0.3</v>
+      </c>
+      <c r="K25">
+        <v>7.4</v>
+      </c>
+      <c r="L25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>732</v>
+      </c>
+      <c r="D26">
+        <v>150</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="4"/>
+        <v>4.0200000000000005</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="5"/>
+        <v>2.9699999999999998</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="6"/>
+        <v>29.73</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="7"/>
+        <v>163.5</v>
+      </c>
+      <c r="I26">
+        <v>2.68</v>
+      </c>
+      <c r="J26">
+        <v>1.98</v>
+      </c>
+      <c r="K26">
+        <v>19.82</v>
+      </c>
+      <c r="L26">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>733</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="4"/>
+        <v>6.38</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="5"/>
+        <v>14.24</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="6"/>
+        <v>56.77</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="7"/>
+        <v>398</v>
+      </c>
+      <c r="I27">
+        <v>6.38</v>
+      </c>
+      <c r="J27">
+        <v>14.24</v>
+      </c>
+      <c r="K27">
+        <v>56.77</v>
+      </c>
+      <c r="L27">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>7</v>
       </c>
-      <c r="E25">
-        <f>SUM(E8:E23)</f>
-        <v>91.89</v>
-      </c>
-      <c r="F25">
-        <f>SUM(F8:F23)</f>
-        <v>42.070000000000007</v>
-      </c>
-      <c r="G25">
-        <f>SUM(G8:G23)</f>
-        <v>100.55000000000001</v>
-      </c>
-      <c r="H25">
-        <f>SUM(H8:H23)</f>
-        <v>1135.2</v>
+      <c r="E28">
+        <f>SUM(E8:E27)</f>
+        <v>185.79</v>
+      </c>
+      <c r="F28">
+        <f>SUM(F8:F27)</f>
+        <v>72.640000000000015</v>
+      </c>
+      <c r="G28">
+        <f>SUM(G8:G27)</f>
+        <v>269.27999999999997</v>
+      </c>
+      <c r="H28">
+        <f>SUM(H8:H27)</f>
+        <v>2702.7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>44041</v>
+      </c>
+      <c r="C30" t="s">
+        <v>741</v>
+      </c>
+      <c r="D30" t="s">
+        <v>715</v>
+      </c>
+      <c r="E30" t="s">
+        <v>710</v>
+      </c>
+      <c r="F30" t="s">
+        <v>711</v>
+      </c>
+      <c r="G30" t="s">
+        <v>712</v>
+      </c>
+      <c r="H30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" t="s">
+        <v>707</v>
+      </c>
+      <c r="J30" t="s">
+        <v>708</v>
+      </c>
+      <c r="K30" t="s">
+        <v>709</v>
+      </c>
+      <c r="L30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>713</v>
+      </c>
+      <c r="D31">
+        <v>40</v>
+      </c>
+      <c r="E31">
+        <f>$D31/100*I31</f>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f>$D31/100*J31</f>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f>$D31/100*K31</f>
+        <v>40</v>
+      </c>
+      <c r="H31">
+        <f>D31/100*L31</f>
+        <v>147.20000000000002</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>100</v>
+      </c>
+      <c r="L31">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>714</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f>$D32/100*I32</f>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f>$D32/100*J32</f>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f>$D32/100*K32</f>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f>D32/100*L32</f>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>8.27</v>
+      </c>
+      <c r="J32">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K32">
+        <v>21.48</v>
+      </c>
+      <c r="L32">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>716</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f>$D33/100*I33</f>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f>$D33/100*J33</f>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f>$D33/100*K33</f>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f>D33/100*L33</f>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>3.6</v>
+      </c>
+      <c r="J33">
+        <v>6.24</v>
+      </c>
+      <c r="K33">
+        <v>14.32</v>
+      </c>
+      <c r="L33">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>717</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <f>$D34/100*I34</f>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f>$D34/100*J34</f>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f>$D34/100*K34</f>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f>D34/100*L34</f>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>3.7</v>
+      </c>
+      <c r="J34">
+        <v>9.89</v>
+      </c>
+      <c r="K34">
+        <v>4.04</v>
+      </c>
+      <c r="L34">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>718</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <f>$D35/100*I35</f>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f>$D35/100*J35</f>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f>$D35/100*K35</f>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f>D35/100*L35</f>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>51.1</v>
+      </c>
+      <c r="J35">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>719</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f>$D36/100*I36</f>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f>$D36/100*J36</f>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f>$D36/100*K36</f>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f>D36/100*L36</f>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0.3</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>4.5</v>
+      </c>
+      <c r="L36">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>720</v>
+      </c>
+      <c r="D37">
+        <v>70</v>
+      </c>
+      <c r="E37">
+        <f>$D37/100*I37</f>
+        <v>1.54</v>
+      </c>
+      <c r="F37">
+        <f>$D37/100*J37</f>
+        <v>0.67199999999999993</v>
+      </c>
+      <c r="G37">
+        <f>$D37/100*K37</f>
+        <v>14.7</v>
+      </c>
+      <c r="H37">
+        <f>D37/100*L37</f>
+        <v>70</v>
+      </c>
+      <c r="I37">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J37">
+        <v>0.96</v>
+      </c>
+      <c r="K37">
+        <v>21</v>
+      </c>
+      <c r="L37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>721</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f>$D38/100*I38</f>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f>$D38/100*J38</f>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f>$D38/100*K38</f>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f>D38/100*L38</f>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>13.1</v>
+      </c>
+      <c r="J38">
+        <v>8.6</v>
+      </c>
+      <c r="K38">
+        <v>8.4</v>
+      </c>
+      <c r="L38">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>722</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f>$D39/100*I39</f>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f>$D39/100*J39</f>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f>$D39/100*K39</f>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f>D39/100*L39</f>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>26</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+      <c r="K39">
+        <v>0.43</v>
+      </c>
+      <c r="L39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>723</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <f>$D40/100*I40</f>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f>$D40/100*J40</f>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f>$D40/100*K40</f>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f>D40/100*L40</f>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>12.7</v>
+      </c>
+      <c r="J40">
+        <v>11.5</v>
+      </c>
+      <c r="K40">
+        <v>0.7</v>
+      </c>
+      <c r="L40">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>724</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <f>$D41/100*I41</f>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f>$D41/100*J41</f>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f>$D41/100*K41</f>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f>D41/100*L41</f>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>23.4</v>
+      </c>
+      <c r="J41">
+        <v>6.4</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>725</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <f>$D42/100*I42</f>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f>$D42/100*J42</f>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f>$D42/100*K42</f>
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f>D42/100*L42</f>
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>2.9</v>
+      </c>
+      <c r="J42">
+        <v>6.9</v>
+      </c>
+      <c r="K42">
+        <v>6.5</v>
+      </c>
+      <c r="L42">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>726</v>
+      </c>
+      <c r="D43">
+        <v>100</v>
+      </c>
+      <c r="E43">
+        <f>$D43/100*I43</f>
+        <v>1.8</v>
+      </c>
+      <c r="F43">
+        <f>$D43/100*J43</f>
+        <v>0.2</v>
+      </c>
+      <c r="G43">
+        <f>$D43/100*K43</f>
+        <v>4.7</v>
+      </c>
+      <c r="H43">
+        <f>D43/100*L43</f>
+        <v>28</v>
+      </c>
+      <c r="I43">
+        <v>1.8</v>
+      </c>
+      <c r="J43">
+        <v>0.2</v>
+      </c>
+      <c r="K43">
+        <v>4.7</v>
+      </c>
+      <c r="L43">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>727</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <f>$D44/100*I44</f>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f>$D44/100*J44</f>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f>$D44/100*K44</f>
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f>D44/100*L44</f>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>1.4</v>
+      </c>
+      <c r="J44">
+        <v>90</v>
+      </c>
+      <c r="K44">
+        <v>5.5</v>
+      </c>
+      <c r="L44">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>728</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <f>$D45/100*I45</f>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f>$D45/100*J45</f>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f>$D45/100*K45</f>
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f>D45/100*L45</f>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>1.54</v>
+      </c>
+      <c r="J45">
+        <v>0.38</v>
+      </c>
+      <c r="K45">
+        <v>4.03</v>
+      </c>
+      <c r="L45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>729</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <f>$D46/100*I46</f>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f>$D46/100*J46</f>
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f>$D46/100*K46</f>
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f>D46/100*L46</f>
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>12.4</v>
+      </c>
+      <c r="J46">
+        <v>6.4</v>
+      </c>
+      <c r="K46">
+        <v>6.8</v>
+      </c>
+      <c r="L46">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>730</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <f>$D47/100*I47</f>
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f>$D47/100*J47</f>
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f>$D47/100*K47</f>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f>D47/100*L47</f>
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>731</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <f>$D48/100*I48</f>
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <f>$D48/100*J48</f>
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f>$D48/100*K48</f>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f>D48/100*L48</f>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0.6</v>
+      </c>
+      <c r="J48">
+        <v>0.3</v>
+      </c>
+      <c r="K48">
+        <v>7.4</v>
+      </c>
+      <c r="L48">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>732</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <f>$D49/100*I49</f>
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <f>$D49/100*J49</f>
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f>$D49/100*K49</f>
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <f>D49/100*L49</f>
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>2.68</v>
+      </c>
+      <c r="J49">
+        <v>1.98</v>
+      </c>
+      <c r="K49">
+        <v>19.82</v>
+      </c>
+      <c r="L49">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>733</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <f>$D50/100*I50</f>
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f>$D50/100*J50</f>
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <f>$D50/100*K50</f>
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <f>D50/100*L50</f>
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>6.38</v>
+      </c>
+      <c r="J50">
+        <v>14.24</v>
+      </c>
+      <c r="K50">
+        <v>56.77</v>
+      </c>
+      <c r="L50">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>734</v>
+      </c>
+      <c r="D51">
+        <v>90</v>
+      </c>
+      <c r="E51">
+        <f>$D51/100*I51</f>
+        <v>20.7</v>
+      </c>
+      <c r="F51">
+        <f>$D51/100*J51</f>
+        <v>0.9</v>
+      </c>
+      <c r="G51">
+        <f>$D51/100*K51</f>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f>D51/100*L51</f>
+        <v>90.9</v>
+      </c>
+      <c r="I51">
+        <v>23</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>735</v>
+      </c>
+      <c r="D52">
+        <v>30</v>
+      </c>
+      <c r="E52">
+        <f>$D52/100*I52</f>
+        <v>2.73</v>
+      </c>
+      <c r="F52">
+        <f>$D52/100*J52</f>
+        <v>0.33</v>
+      </c>
+      <c r="G52">
+        <f>$D52/100*K52</f>
+        <v>17.04</v>
+      </c>
+      <c r="H52">
+        <f>D52/100*L52</f>
+        <v>83.1</v>
+      </c>
+      <c r="I52">
+        <v>9.1</v>
+      </c>
+      <c r="J52">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K52">
+        <v>56.8</v>
+      </c>
+      <c r="L52">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>736</v>
+      </c>
+      <c r="D53">
+        <v>100</v>
+      </c>
+      <c r="E53">
+        <f>$D53/100*I53</f>
+        <v>1.3</v>
+      </c>
+      <c r="F53">
+        <f>$D53/100*J53</f>
+        <v>0.1</v>
+      </c>
+      <c r="G53">
+        <f>$D53/100*K53</f>
+        <v>6.9</v>
+      </c>
+      <c r="H53">
+        <f>D53/100*L53</f>
+        <v>41</v>
+      </c>
+      <c r="I53">
+        <v>1.3</v>
+      </c>
+      <c r="J53">
+        <v>0.1</v>
+      </c>
+      <c r="K53">
+        <v>6.9</v>
+      </c>
+      <c r="L53">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>737</v>
+      </c>
+      <c r="D54">
+        <v>90</v>
+      </c>
+      <c r="E54">
+        <f>$D54/100*I54</f>
+        <v>1.35</v>
+      </c>
+      <c r="F54">
+        <f>$D54/100*J54</f>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="G54">
+        <f>$D54/100*K54</f>
+        <v>7.9200000000000008</v>
+      </c>
+      <c r="H54">
+        <f>D54/100*L54</f>
+        <v>37.800000000000004</v>
+      </c>
+      <c r="I54">
+        <v>1.5</v>
+      </c>
+      <c r="J54">
+        <v>0.1</v>
+      </c>
+      <c r="K54">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="L54">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>738</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <f>$D55/100*I55</f>
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <f>$D55/100*J55</f>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f>$D55/100*K55</f>
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f>D55/100*L55</f>
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>1.6</v>
+      </c>
+      <c r="J55">
+        <v>6.3</v>
+      </c>
+      <c r="K55">
+        <v>7.4</v>
+      </c>
+      <c r="L55">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>739</v>
+      </c>
+      <c r="D56">
+        <v>300</v>
+      </c>
+      <c r="E56">
+        <f>$D56/100*I56</f>
+        <v>51</v>
+      </c>
+      <c r="F56">
+        <f>$D56/100*J56</f>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="G56">
+        <f>$D56/100*K56</f>
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="H56">
+        <f>D56/100*L56</f>
+        <v>291</v>
+      </c>
+      <c r="I56">
+        <v>17</v>
+      </c>
+      <c r="J56">
+        <v>2.6</v>
+      </c>
+      <c r="K56">
+        <v>0.69</v>
+      </c>
+      <c r="L56">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>740</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f>$D57/100*I57</f>
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f>$D57/100*J57</f>
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <f>$D57/100*K57</f>
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <f>D57/100*L57</f>
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="J57">
+        <v>12.4</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>742</v>
+      </c>
+      <c r="D58">
+        <v>27</v>
+      </c>
+      <c r="E58">
+        <f>$D58/100*I58</f>
+        <v>1.8279000000000001</v>
+      </c>
+      <c r="F58">
+        <f>$D58/100*J58</f>
+        <v>2.4300000000000002E-2</v>
+      </c>
+      <c r="G58">
+        <f>$D58/100*K58</f>
+        <v>5.67E-2</v>
+      </c>
+      <c r="H58">
+        <f>D58/100*L58</f>
+        <v>7.2900000000000009</v>
+      </c>
+      <c r="I58">
+        <v>6.77</v>
+      </c>
+      <c r="J58">
+        <v>0.09</v>
+      </c>
+      <c r="K58">
+        <v>0.21</v>
+      </c>
+      <c r="L58">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="5">
+        <f>SUM(E31:E58)</f>
+        <v>82.247900000000001</v>
+      </c>
+      <c r="F59" s="5">
+        <f>SUM(F31:F58)</f>
+        <v>10.116300000000001</v>
+      </c>
+      <c r="G59" s="5">
+        <f>SUM(G31:G58)</f>
+        <v>93.386700000000005</v>
+      </c>
+      <c r="H59" s="5">
+        <f>SUM(H31:H58)</f>
+        <v>796.29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
